--- a/session4/hdi.xlsx
+++ b/session4/hdi.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/Evans/DataDriven_ManagementAndPolicy/Session3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/Evans/DataDriven_ManagementAndPolicy/session4/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="3320" yWindow="2360" windowWidth="14360" windowHeight="10860" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="hdiData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -599,10 +599,10 @@
     <t>Niger</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
     <t>hdi</t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
   </si>
 </sst>
 </file>
@@ -618,12 +618,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -638,8 +644,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -919,146 +926,150 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="196" zoomScalePageLayoutView="196" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="B1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="B2">
-        <v>0.95299999999999996</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="B3">
-        <v>0.94399999999999995</v>
+        <v>0.78500000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="B4">
-        <v>0.93899999999999995</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B5">
-        <v>0.93799999999999994</v>
+        <v>0.85799999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="B6">
-        <v>0.93600000000000005</v>
+        <v>0.58099999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="B7">
-        <v>0.93500000000000005</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B8">
-        <v>0.93300000000000005</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="B9">
-        <v>0.93300000000000005</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>0.93200000000000005</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>0.93100000000000005</v>
+        <v>0.90800000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="B12">
-        <v>0.92900000000000005</v>
+        <v>0.75700000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B13">
-        <v>0.92600000000000005</v>
+        <v>0.80700000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B14">
-        <v>0.92400000000000004</v>
+        <v>0.84599999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="B15">
-        <v>0.92200000000000004</v>
+        <v>0.60799999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B16">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B17">
-        <v>0.91700000000000004</v>
+        <v>0.80800000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1071,1389 +1082,1392 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="B19">
-        <v>0.91600000000000004</v>
+        <v>0.70799999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="B20">
-        <v>0.90900000000000003</v>
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="B21">
-        <v>0.90800000000000003</v>
+        <v>0.61199999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="B22">
-        <v>0.90400000000000003</v>
+        <v>0.69299999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="B23">
-        <v>0.90300000000000002</v>
+        <v>0.76800000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="B24">
-        <v>0.90300000000000002</v>
+        <v>0.71699999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="B25">
-        <v>0.90100000000000002</v>
+        <v>0.75900000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B26">
-        <v>0.89600000000000002</v>
+        <v>0.85299999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B27">
-        <v>0.89100000000000001</v>
+        <v>0.81299999999999994</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="B28">
-        <v>0.88800000000000001</v>
+        <v>0.42299999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="B29">
-        <v>0.88</v>
+        <v>0.41699999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="B30">
-        <v>0.878</v>
+        <v>0.58199999999999996</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="B31">
-        <v>0.871</v>
+        <v>0.55600000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B32">
-        <v>0.87</v>
+        <v>0.92600000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="B33">
-        <v>0.86899999999999999</v>
+        <v>0.65400000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c r="B34">
-        <v>0.86499999999999999</v>
+        <v>0.36699999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>186</v>
       </c>
       <c r="B35">
-        <v>0.86299999999999999</v>
+        <v>0.40400000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.85799999999999998</v>
+        <v>0.84299999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="B37">
-        <v>0.85799999999999998</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="B38">
-        <v>0.85599999999999998</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="B39">
-        <v>0.85499999999999998</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="B40">
-        <v>0.85299999999999998</v>
+        <v>0.45700000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="B41">
-        <v>0.85299999999999998</v>
+        <v>0.60599999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B42">
-        <v>0.84699999999999998</v>
+        <v>0.79400000000000004</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.84699999999999998</v>
+        <v>0.83099999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B44">
-        <v>0.84599999999999997</v>
+        <v>0.77700000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B45">
-        <v>0.84299999999999997</v>
+        <v>0.86899999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B46">
-        <v>0.83799999999999997</v>
+        <v>0.88800000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B47">
-        <v>0.83099999999999996</v>
+        <v>0.92900000000000005</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="B48">
-        <v>0.82499999999999996</v>
+        <v>0.47599999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="B49">
-        <v>0.82099999999999995</v>
+        <v>0.71499999999999997</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B50">
-        <v>0.81599999999999995</v>
+        <v>0.73599999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="B51">
-        <v>0.81399999999999995</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="B52">
-        <v>0.81299999999999994</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="B53">
-        <v>0.81100000000000005</v>
+        <v>0.69599999999999995</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="B54">
-        <v>0.80800000000000005</v>
+        <v>0.67400000000000004</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="B55">
-        <v>0.80700000000000005</v>
+        <v>0.59099999999999997</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="B56">
-        <v>0.80400000000000005</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B57">
-        <v>0.80300000000000005</v>
+        <v>0.871</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>173</v>
       </c>
       <c r="B58">
-        <v>0.80200000000000005</v>
+        <v>0.46300000000000002</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B59">
-        <v>0.8</v>
+        <v>0.74099999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B60">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B61">
-        <v>0.79800000000000004</v>
+        <v>0.90100000000000002</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="B62">
-        <v>0.79800000000000004</v>
+        <v>0.70199999999999996</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>174</v>
       </c>
       <c r="B63">
-        <v>0.79700000000000004</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.79400000000000004</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="B65">
-        <v>0.79100000000000004</v>
+        <v>0.93600000000000005</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="B66">
-        <v>0.79</v>
+        <v>0.59199999999999997</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B67">
-        <v>0.78900000000000003</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.78700000000000003</v>
+        <v>0.77200000000000002</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="B69">
-        <v>0.78500000000000003</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="B70">
-        <v>0.78400000000000003</v>
+        <v>0.45900000000000002</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>177</v>
       </c>
       <c r="B71">
-        <v>0.78</v>
+        <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="B72">
-        <v>0.78</v>
+        <v>0.65400000000000003</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="B73">
-        <v>0.77800000000000002</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="B74">
-        <v>0.77700000000000002</v>
+        <v>0.61699999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="B75">
-        <v>0.77400000000000002</v>
+        <v>0.93300000000000005</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B76">
-        <v>0.77200000000000002</v>
+        <v>0.83799999999999997</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="B77">
-        <v>0.77</v>
+        <v>0.93500000000000005</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="B78">
-        <v>0.76800000000000002</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="B79">
-        <v>0.76100000000000001</v>
+        <v>0.69399999999999995</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B80">
-        <v>0.75900000000000001</v>
+        <v>0.79800000000000004</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="B81">
-        <v>0.75700000000000001</v>
+        <v>0.68500000000000005</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="B82">
-        <v>0.75700000000000001</v>
+        <v>0.93799999999999994</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B83">
-        <v>0.75700000000000001</v>
+        <v>0.90300000000000002</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="B84">
-        <v>0.755</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="B85">
-        <v>0.755</v>
+        <v>0.49199999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B86">
-        <v>0.754</v>
+        <v>0.73199999999999998</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="B87">
-        <v>0.752</v>
+        <v>0.90900000000000003</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.752</v>
+        <v>0.73499999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B89">
-        <v>0.751</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="B90">
-        <v>0.75</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="B91">
-        <v>0.747</v>
+        <v>0.61199999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="B92">
-        <v>0.747</v>
+        <v>0.80300000000000005</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B93">
-        <v>0.74099999999999999</v>
+        <v>0.67200000000000004</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="B94">
-        <v>0.74099999999999999</v>
+        <v>0.60099999999999998</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="B95">
-        <v>0.73599999999999999</v>
+        <v>0.84699999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B96">
-        <v>0.73499999999999999</v>
+        <v>0.75700000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="B97">
-        <v>0.73499999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="B98">
-        <v>0.73199999999999998</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>0.72799999999999998</v>
+        <v>0.70599999999999996</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="B100">
-        <v>0.72599999999999998</v>
+        <v>0.91600000000000004</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="B101">
-        <v>0.72299999999999998</v>
+        <v>0.85799999999999998</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="B102">
-        <v>0.72</v>
+        <v>0.90400000000000003</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B103">
-        <v>0.71699999999999997</v>
+        <v>0.75700000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="B104">
-        <v>0.71699999999999997</v>
+        <v>0.51900000000000002</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="B105">
-        <v>0.71499999999999997</v>
+        <v>0.47699999999999998</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="B106">
-        <v>0.71299999999999997</v>
+        <v>0.80200000000000005</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B107">
-        <v>0.71</v>
+        <v>0.71699999999999997</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>182</v>
       </c>
       <c r="B108">
-        <v>0.70799999999999996</v>
+        <v>0.42699999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="B109">
-        <v>0.70799999999999996</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B110">
-        <v>0.70599999999999996</v>
+        <v>0.70799999999999996</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="B111">
-        <v>0.70599999999999996</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="B112">
-        <v>0.70199999999999996</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="B113">
-        <v>0.70199999999999996</v>
+        <v>0.77400000000000002</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B114">
-        <v>0.7</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B115">
-        <v>0.69899999999999995</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B116">
-        <v>0.69899999999999995</v>
+        <v>0.74099999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="B117">
-        <v>0.69599999999999995</v>
+        <v>0.81399999999999995</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B118">
-        <v>0.69399999999999995</v>
+        <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="B119">
-        <v>0.69399999999999995</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="B120">
-        <v>0.69299999999999995</v>
+        <v>0.57799999999999996</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B121">
-        <v>0.68600000000000005</v>
+        <v>0.64700000000000002</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B122">
-        <v>0.68500000000000005</v>
+        <v>0.57399999999999995</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="B123">
-        <v>0.67400000000000004</v>
+        <v>0.93100000000000005</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="B124">
-        <v>0.67200000000000004</v>
+        <v>0.91700000000000004</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125">
-        <v>0.66700000000000004</v>
+        <v>0.65800000000000003</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="B126">
-        <v>0.65800000000000003</v>
+        <v>0.35399999999999998</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="B127">
-        <v>0.65400000000000003</v>
+        <v>0.53200000000000003</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>1</v>
       </c>
       <c r="B128">
-        <v>0.65400000000000003</v>
+        <v>0.95299999999999996</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="B129">
-        <v>0.65</v>
+        <v>0.82099999999999995</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="B130">
-        <v>0.65</v>
+        <v>0.56200000000000006</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="B131">
-        <v>0.64700000000000002</v>
+        <v>0.79800000000000004</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B132">
-        <v>0.64</v>
+        <v>0.68600000000000005</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="B133">
-        <v>0.627</v>
+        <v>0.78900000000000003</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="B134">
-        <v>0.625</v>
+        <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B135">
-        <v>0.61699999999999999</v>
+        <v>0.70199999999999996</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="B136">
-        <v>0.61199999999999999</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B137">
-        <v>0.61199999999999999</v>
+        <v>0.69899999999999995</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="B138">
-        <v>0.60799999999999998</v>
+        <v>0.86499999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="B139">
-        <v>0.60599999999999998</v>
+        <v>0.84699999999999998</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="B140">
-        <v>0.60299999999999998</v>
+        <v>0.85599999999999998</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="B141">
-        <v>0.60099999999999998</v>
+        <v>0.81100000000000005</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="B142">
-        <v>0.59199999999999997</v>
+        <v>0.81599999999999995</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B143">
-        <v>0.59099999999999997</v>
+        <v>0.52400000000000002</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="B144">
-        <v>0.59</v>
+        <v>0.77800000000000002</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="B145">
-        <v>0.58899999999999997</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="B146">
-        <v>0.58799999999999997</v>
+        <v>0.72299999999999998</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="B147">
-        <v>0.58799999999999997</v>
+        <v>0.71299999999999997</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B148">
-        <v>0.58199999999999996</v>
+        <v>0.58899999999999997</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="B149">
-        <v>0.58099999999999996</v>
+        <v>0.85299999999999998</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B150">
-        <v>0.57799999999999996</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="B151">
-        <v>0.57399999999999995</v>
+        <v>0.78700000000000003</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="B152">
-        <v>0.56200000000000006</v>
+        <v>0.79700000000000004</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="B153">
-        <v>0.55600000000000005</v>
+        <v>0.41899999999999998</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="B154">
-        <v>0.54600000000000004</v>
+        <v>0.93200000000000005</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="B155">
-        <v>0.54400000000000004</v>
+        <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="B156">
-        <v>0.53800000000000003</v>
+        <v>0.89600000000000002</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B157">
-        <v>0.53600000000000003</v>
+        <v>0.54600000000000004</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="B158">
-        <v>0.53500000000000003</v>
+        <v>0.69899999999999995</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="B159">
-        <v>0.53200000000000003</v>
+        <v>0.90300000000000002</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="B160">
-        <v>0.52400000000000002</v>
+        <v>0.38800000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="B161">
-        <v>0.52</v>
+        <v>0.89100000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="B162">
-        <v>0.52</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B163">
-        <v>0.51900000000000002</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="B164">
-        <v>0.51600000000000001</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B165">
-        <v>0.51500000000000001</v>
+        <v>0.58799999999999997</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>164</v>
+        <v>8</v>
       </c>
       <c r="B166">
-        <v>0.505</v>
+        <v>0.93300000000000005</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>165</v>
+        <v>2</v>
       </c>
       <c r="B167">
-        <v>0.503</v>
+        <v>0.94399999999999995</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B168">
-        <v>0.503</v>
+        <v>0.53600000000000003</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="B169">
-        <v>0.502</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B170">
-        <v>0.498</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>169</v>
+        <v>84</v>
       </c>
       <c r="B171">
-        <v>0.498</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B172">
-        <v>0.49199999999999999</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="B173">
-        <v>0.47699999999999998</v>
+        <v>0.72599999999999998</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="B174">
-        <v>0.47599999999999998</v>
+        <v>0.78400000000000003</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="B175">
-        <v>0.46300000000000002</v>
+        <v>0.73499999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>174</v>
+        <v>64</v>
       </c>
       <c r="B176">
-        <v>0.46</v>
+        <v>0.79100000000000004</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="B177">
-        <v>0.45900000000000002</v>
+        <v>0.70599999999999996</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B178">
-        <v>0.45700000000000002</v>
+        <v>0.51600000000000001</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="B179">
-        <v>0.45500000000000002</v>
+        <v>0.751</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="B180">
-        <v>0.45200000000000001</v>
+        <v>0.86299999999999999</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="B181">
-        <v>0.44</v>
+        <v>0.92200000000000004</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B182">
-        <v>0.437</v>
+        <v>0.92400000000000004</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="B183">
-        <v>0.435</v>
+        <v>0.80400000000000005</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="B184">
-        <v>0.42699999999999999</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="B185">
-        <v>0.42299999999999999</v>
+        <v>0.60299999999999998</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="B186">
-        <v>0.41899999999999998</v>
+        <v>0.76100000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>185</v>
+        <v>117</v>
       </c>
       <c r="B187">
-        <v>0.41699999999999998</v>
+        <v>0.69399999999999995</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="B188">
-        <v>0.40400000000000003</v>
+        <v>0.72799999999999998</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B189">
-        <v>0.38800000000000001</v>
+        <v>0.45200000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="B190">
-        <v>0.36699999999999999</v>
+        <v>0.58799999999999997</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="B191">
-        <v>0.35399999999999998</v>
+        <v>0.53500000000000003</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B191">
+    <sortCondition ref="A2:A191"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>